--- a/translate.xlsx
+++ b/translate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="924">
   <si>
     <t>Greenpath</t>
   </si>
@@ -2372,6 +2372,420 @@
   </si>
   <si>
     <t>手动分段</t>
+  </si>
+  <si>
+    <t>Round%</t>
+  </si>
+  <si>
+    <t>奥波路波%</t>
+  </si>
+  <si>
+    <t>Zote%</t>
+  </si>
+  <si>
+    <t>左特%</t>
+  </si>
+  <si>
+    <t>All Breakable Charms</t>
+  </si>
+  <si>
+    <t>全易碎护符</t>
+  </si>
+  <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>鬼魂破坏者</t>
+  </si>
+  <si>
+    <t>Godhome Ending</t>
+  </si>
+  <si>
+    <t>神居结局</t>
+  </si>
+  <si>
+    <t>All Unbreakable Charms</t>
+  </si>
+  <si>
+    <t>全坚固护符</t>
+  </si>
+  <si>
+    <t>Steel Soul</t>
+  </si>
+  <si>
+    <t>钢魂</t>
+  </si>
+  <si>
+    <t>A1uba%</t>
+  </si>
+  <si>
+    <t>阿鲁巴一只</t>
+  </si>
+  <si>
+    <t>Vessel Fragments</t>
+  </si>
+  <si>
+    <t>容器碎片</t>
+  </si>
+  <si>
+    <t>(9 Vessel Fragments)</t>
+  </si>
+  <si>
+    <t>（9容器碎片）</t>
+  </si>
+  <si>
+    <t>Worldsoul</t>
+  </si>
+  <si>
+    <t>世界之魂</t>
+  </si>
+  <si>
+    <t>Cartographer</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>结局</t>
+  </si>
+  <si>
+    <t>Pantheon of the Master (P1)</t>
+  </si>
+  <si>
+    <t>万神殿1门</t>
+  </si>
+  <si>
+    <t>Pantheon of the Artist (P2)</t>
+  </si>
+  <si>
+    <t>万神殿2门</t>
+  </si>
+  <si>
+    <t>Pantheon of the Sage (P3)</t>
+  </si>
+  <si>
+    <t>万神殿3门</t>
+  </si>
+  <si>
+    <t>Pantheon of the Knight (P4)</t>
+  </si>
+  <si>
+    <t>万神殿4门</t>
+  </si>
+  <si>
+    <t>Pantheon of Hallownest (P5)</t>
+  </si>
+  <si>
+    <t>万神殿5门</t>
+  </si>
+  <si>
+    <t>Fool%</t>
+  </si>
+  <si>
+    <t>愚人的试炼%</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>真</t>
+  </si>
+  <si>
+    <t>Mask Shards</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>吉欧</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>全护符槽</t>
+  </si>
+  <si>
+    <t>No Shop Charms</t>
+  </si>
+  <si>
+    <t>不在商店买护符</t>
+  </si>
+  <si>
+    <t>Egg (21)</t>
+  </si>
+  <si>
+    <t>腐臭蛋21个</t>
+  </si>
+  <si>
+    <t>All Skills</t>
+  </si>
+  <si>
+    <t>全技能</t>
+  </si>
+  <si>
+    <t>All Glitches</t>
+  </si>
+  <si>
+    <t>允许所有邪道</t>
+  </si>
+  <si>
+    <t>Trial of the Warrior (colo1)</t>
+  </si>
+  <si>
+    <t>竞技场1</t>
+  </si>
+  <si>
+    <t>Trial of the Conqueror (colo2)</t>
+  </si>
+  <si>
+    <t>竞技场2</t>
+  </si>
+  <si>
+    <t>Trial of the Fool (colo3)</t>
+  </si>
+  <si>
+    <t>竞技场3</t>
+  </si>
+  <si>
+    <t>Florist</t>
+  </si>
+  <si>
+    <t>花匠</t>
+  </si>
+  <si>
+    <t>GPZ%</t>
+  </si>
+  <si>
+    <t>灰色王子左特%</t>
+  </si>
+  <si>
+    <t>Hiveblood%</t>
+  </si>
+  <si>
+    <t>蜂巢之血%</t>
+  </si>
+  <si>
+    <t>Current Patch</t>
+  </si>
+  <si>
+    <t>当前版本</t>
+  </si>
+  <si>
+    <t>Eat Me Too</t>
+  </si>
+  <si>
+    <t>把我也吃了吧</t>
+  </si>
+  <si>
+    <t>Lifeblood Core%</t>
+  </si>
+  <si>
+    <t>生命血核心%</t>
+  </si>
+  <si>
+    <t>Witness</t>
+  </si>
+  <si>
+    <t>见证</t>
+  </si>
+  <si>
+    <t>(Current Patch NMG)</t>
+  </si>
+  <si>
+    <t>（当前版本NMG）</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>真结局</t>
+  </si>
+  <si>
+    <t>("Flukamoth")</t>
+  </si>
+  <si>
+    <t>（“吸虫”）</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>全BOSS</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>全万神殿BOSS</t>
+  </si>
+  <si>
+    <t>Any% (1.4.3.2) w/ Spore Shroom</t>
+  </si>
+  <si>
+    <t>Any%(1.4.3.2)蘑菇孢子路线</t>
+  </si>
+  <si>
+    <t>(1.4+ Shriek)</t>
+  </si>
+  <si>
+    <t>（1.4+版本吼路线）</t>
+  </si>
+  <si>
+    <t>Al2ba%</t>
+  </si>
+  <si>
+    <t>阿鲁巴两只</t>
+  </si>
+  <si>
+    <t>All Charm Notches</t>
+  </si>
+  <si>
+    <t>All Keys</t>
+  </si>
+  <si>
+    <t>全钥匙</t>
+  </si>
+  <si>
+    <t>All Stag Stations</t>
+  </si>
+  <si>
+    <t>全鹿角站</t>
+  </si>
+  <si>
+    <t>All Wanderer's Journals</t>
+  </si>
+  <si>
+    <t>全漫游者日记</t>
+  </si>
+  <si>
+    <t>All Geo Chests</t>
+  </si>
+  <si>
+    <t>全吉欧堆</t>
+  </si>
+  <si>
+    <t>All Whispering Roots</t>
+  </si>
+  <si>
+    <t>全低语之根</t>
+  </si>
+  <si>
+    <t>Clawless</t>
+  </si>
+  <si>
+    <t>无螳螂爪</t>
+  </si>
+  <si>
+    <t>Elderbug%</t>
+  </si>
+  <si>
+    <t>Great Hopper%</t>
+  </si>
+  <si>
+    <t>大跳虫%</t>
+  </si>
+  <si>
+    <t>Grubsong%</t>
+  </si>
+  <si>
+    <t>幼虫之歌%</t>
+  </si>
+  <si>
+    <t>Spelless</t>
+  </si>
+  <si>
+    <t>无法术</t>
+  </si>
+  <si>
+    <t>Marissa Audience</t>
+  </si>
+  <si>
+    <t>玛丽莎的听众</t>
+  </si>
+  <si>
+    <t>Marmu%</t>
+  </si>
+  <si>
+    <t>马尔穆%</t>
+  </si>
+  <si>
+    <t>Myla%</t>
+  </si>
+  <si>
+    <t>米拉%</t>
+  </si>
+  <si>
+    <t>Myla's Revenge</t>
+  </si>
+  <si>
+    <t>米拉的报复</t>
+  </si>
+  <si>
+    <t>NKG%</t>
+  </si>
+  <si>
+    <t>梦魇之王格林%</t>
+  </si>
+  <si>
+    <t>NMG%</t>
+  </si>
+  <si>
+    <t>骨钉大师的荣耀%</t>
+  </si>
+  <si>
+    <t>Nice%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>Nosk%</t>
+  </si>
+  <si>
+    <t>诺斯克%</t>
+  </si>
+  <si>
+    <t>Path of Pain%</t>
+  </si>
+  <si>
+    <t>苦痛之路%</t>
+  </si>
+  <si>
+    <t>Save Myla (Dash Slash route)</t>
+  </si>
+  <si>
+    <t>拯救米拉（冲刺劈砍路线）</t>
+  </si>
+  <si>
+    <t>Shriek%</t>
+  </si>
+  <si>
+    <t>深渊尖啸%</t>
+  </si>
+  <si>
+    <t>Pantheon 5 Boss Order</t>
+  </si>
+  <si>
+    <t>在流程中按5门顺序击杀BOSS</t>
+  </si>
+  <si>
+    <t>(Steel Soul)</t>
+  </si>
+  <si>
+    <t>（钢魂）</t>
+  </si>
+  <si>
+    <t>Enraged Guardian%</t>
+  </si>
+  <si>
+    <t>暴怒守卫%</t>
+  </si>
+  <si>
+    <t>Absolute Radiance</t>
+  </si>
+  <si>
+    <t>无上辐光</t>
   </si>
 </sst>
 </file>
@@ -2379,9 +2793,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2401,6 +2815,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2408,21 +2829,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,25 +2853,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2492,6 +2891,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2501,7 +2908,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2516,7 +2923,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,7 +2931,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2532,6 +2939,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2546,37 +2960,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,55 +2984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,7 +3008,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,19 +3104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,7 +3122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2702,31 +3134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,26 +3193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2810,6 +3204,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2831,6 +3234,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2845,10 +3259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2857,31 +3271,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2890,100 +3310,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3313,10 +3727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="B399" sqref="B399"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6517,6 +6931,574 @@
         <v>785</v>
       </c>
     </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="930">
   <si>
     <t>Greenpath</t>
   </si>
@@ -2786,6 +2786,24 @@
   </si>
   <si>
     <t>无上辐光</t>
+  </si>
+  <si>
+    <t>Eternal Ordeal Unlocked</t>
+  </si>
+  <si>
+    <t>无尽折磨解锁</t>
+  </si>
+  <si>
+    <t>Eternal Ordeal Achieved</t>
+  </si>
+  <si>
+    <t>无尽折磨完成</t>
+  </si>
+  <si>
+    <t>Transition excluding Save State (Transition)</t>
+  </si>
+  <si>
+    <t>任意切换场景（不含SaveState）</t>
   </si>
 </sst>
 </file>
@@ -2793,9 +2811,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2807,6 +2825,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2815,7 +2848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2843,14 +2876,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2864,6 +2889,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2908,7 +2941,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2921,9 +2954,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2932,20 +2964,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2960,13 +2978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,43 +3002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3032,7 +3032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,19 +3062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3068,13 +3080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,13 +3098,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,13 +3134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,25 +3158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3155,6 +3173,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3165,6 +3198,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3193,30 +3235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3234,20 +3252,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3259,10 +3277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3271,133 +3289,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3727,10 +3745,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -7499,6 +7517,30 @@
         <v>923</v>
       </c>
     </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="970">
   <si>
     <t>Greenpath</t>
   </si>
@@ -2804,6 +2804,126 @@
   </si>
   <si>
     <t>任意切换场景（不含SaveState）</t>
+  </si>
+  <si>
+    <t>Sanctum w/ Shade Soul</t>
+  </si>
+  <si>
+    <t>暗影之魂后进入圣所</t>
+  </si>
+  <si>
+    <t>Mourner w/ Seer Ascended</t>
+  </si>
+  <si>
+    <t>先知升天后对话灰色哀悼者</t>
+  </si>
+  <si>
+    <t>Greenpath w/ Unlocked Overcharm</t>
+  </si>
+  <si>
+    <t>过载进入苍绿之径</t>
+  </si>
+  <si>
+    <t>Rescued Grub</t>
+  </si>
+  <si>
+    <t>营救幼虫</t>
+  </si>
+  <si>
+    <t>Mask Fragment</t>
+  </si>
+  <si>
+    <t>Vessel Fragment</t>
+  </si>
+  <si>
+    <t>(Grub)</t>
+  </si>
+  <si>
+    <t>（幼虫）</t>
+  </si>
+  <si>
+    <t>Pale Ore</t>
+  </si>
+  <si>
+    <t>苍白矿石</t>
+  </si>
+  <si>
+    <t>Grimm Flame</t>
+  </si>
+  <si>
+    <t>格林火焰</t>
+  </si>
+  <si>
+    <t>(Ore)</t>
+  </si>
+  <si>
+    <t>（矿石）</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>Embrace the Void</t>
+  </si>
+  <si>
+    <t>拥抱虚空</t>
+  </si>
+  <si>
+    <t>(Mask)</t>
+  </si>
+  <si>
+    <t>（面具）</t>
+  </si>
+  <si>
+    <t>Spire</t>
+  </si>
+  <si>
+    <t>Watcher Spire</t>
+  </si>
+  <si>
+    <t>Basin</t>
+  </si>
+  <si>
+    <t>盆地</t>
+  </si>
+  <si>
+    <t>Leg Eater</t>
+  </si>
+  <si>
+    <t>食腿者</t>
+  </si>
+  <si>
+    <t>The Radiance</t>
+  </si>
+  <si>
+    <t>City of Tears</t>
+  </si>
+  <si>
+    <t>Black Egg Temple</t>
+  </si>
+  <si>
+    <t>黑卵圣殿</t>
+  </si>
+  <si>
+    <t>Lake of Unn</t>
+  </si>
+  <si>
+    <t>乌恩之湖</t>
+  </si>
+  <si>
+    <t>Mantis Village</t>
+  </si>
+  <si>
+    <t>螳螂村</t>
+  </si>
+  <si>
+    <t>Teacher's Archive</t>
+  </si>
+  <si>
+    <t>教师档案馆</t>
   </si>
 </sst>
 </file>
@@ -2811,9 +2931,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2822,14 +2942,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2847,6 +2959,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2854,8 +2974,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2863,6 +2984,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2876,45 +3004,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2923,32 +3012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2963,7 +3029,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2978,31 +3098,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3020,13 +3146,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3042,126 +3282,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3172,17 +3292,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3205,8 +3330,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3230,7 +3355,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3249,26 +3389,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3277,10 +3397,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3289,37 +3409,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3328,94 +3442,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3745,10 +3865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B473"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B474" sqref="B474"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -7541,6 +7661,190 @@
         <v>929</v>
       </c>
     </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoModuleProject\hksplitmaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="980">
   <si>
     <t>Greenpath</t>
   </si>
@@ -2924,19 +2929,66 @@
   </si>
   <si>
     <t>教师档案馆</t>
+  </si>
+  <si>
+    <t>Elegy%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕变挽歌%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐臭蛋101个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg (101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全圣巢印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Hallownest Seals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All King's Idols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国王神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Blessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2945,345 +2997,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3291,317 +3027,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3859,25 +3312,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B496"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3917,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3925,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3933,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3941,7 +3394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3949,7 +3402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3957,7 +3410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3965,7 +3418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3973,7 +3426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3981,7 +3434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +3442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +3450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -4005,7 +3458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4013,7 +3466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -4021,7 +3474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4029,7 +3482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4037,7 +3490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4045,7 +3498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4053,7 +3506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -4061,7 +3514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4069,7 +3522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -4077,7 +3530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -4085,7 +3538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -4093,7 +3546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -4101,7 +3554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4109,7 +3562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4117,7 +3570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -4125,7 +3578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -4133,7 +3586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -4141,7 +3594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4149,7 +3602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -4157,7 +3610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -4165,7 +3618,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -4173,7 +3626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -4181,7 +3634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -4189,7 +3642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -4197,7 +3650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -4205,7 +3658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -4213,7 +3666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -4221,7 +3674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,7 +3682,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4237,7 +3690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4245,7 +3698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -4253,7 +3706,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -4261,7 +3714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -4269,7 +3722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -4277,7 +3730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -4285,7 +3738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -4293,7 +3746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -4301,7 +3754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -4309,7 +3762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -4317,7 +3770,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -4325,7 +3778,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4333,7 +3786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4341,7 +3794,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4349,7 +3802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4357,7 +3810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4365,7 +3818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4373,7 +3826,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -4381,7 +3834,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -4389,7 +3842,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -4397,7 +3850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4405,7 +3858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -4413,7 +3866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -4421,7 +3874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -4429,7 +3882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -4437,7 +3890,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -4445,7 +3898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4453,7 +3906,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4461,7 +3914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -4469,7 +3922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -4477,7 +3930,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -4485,7 +3938,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -4493,7 +3946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -4501,7 +3954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -4509,7 +3962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -4517,7 +3970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -4525,7 +3978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -4533,7 +3986,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -4541,7 +3994,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -4549,7 +4002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -4557,7 +4010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -4565,7 +4018,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -4573,7 +4026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -4581,7 +4034,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -4589,7 +4042,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -4597,7 +4050,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -4605,7 +4058,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -4613,7 +4066,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -4621,7 +4074,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -4629,7 +4082,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -4637,7 +4090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -4645,7 +4098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -4653,7 +4106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -4661,7 +4114,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
@@ -4669,7 +4122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
@@ -4677,7 +4130,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>199</v>
       </c>
@@ -4685,7 +4138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
@@ -4693,7 +4146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
@@ -4701,7 +4154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
@@ -4709,7 +4162,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>207</v>
       </c>
@@ -4717,7 +4170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>209</v>
       </c>
@@ -4725,7 +4178,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>211</v>
       </c>
@@ -4733,7 +4186,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>213</v>
       </c>
@@ -4741,7 +4194,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
@@ -4749,7 +4202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>217</v>
       </c>
@@ -4757,7 +4210,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
@@ -4765,7 +4218,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
@@ -4773,7 +4226,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
@@ -4781,7 +4234,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
@@ -4789,7 +4242,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
@@ -4797,7 +4250,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
@@ -4805,7 +4258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -4813,7 +4266,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>233</v>
       </c>
@@ -4821,7 +4274,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
@@ -4829,7 +4282,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
@@ -4837,7 +4290,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
@@ -4845,7 +4298,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
@@ -4853,7 +4306,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
@@ -4861,7 +4314,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
@@ -4869,7 +4322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
@@ -4877,7 +4330,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>249</v>
       </c>
@@ -4885,7 +4338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
@@ -4893,7 +4346,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -4901,7 +4354,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -4909,7 +4362,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
@@ -4917,7 +4370,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
@@ -4925,7 +4378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
@@ -4933,7 +4386,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -4941,7 +4394,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -4949,7 +4402,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
@@ -4957,7 +4410,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>269</v>
       </c>
@@ -4965,7 +4418,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -4973,7 +4426,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -4981,7 +4434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -4989,7 +4442,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>277</v>
       </c>
@@ -4997,7 +4450,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>279</v>
       </c>
@@ -5005,7 +4458,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>281</v>
       </c>
@@ -5013,7 +4466,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -5021,7 +4474,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -5029,7 +4482,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
@@ -5037,7 +4490,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
@@ -5045,7 +4498,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
@@ -5053,7 +4506,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
@@ -5061,7 +4514,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
@@ -5069,7 +4522,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
@@ -5077,7 +4530,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
@@ -5085,7 +4538,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>300</v>
       </c>
@@ -5093,7 +4546,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
@@ -5101,7 +4554,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
@@ -5109,7 +4562,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
@@ -5117,7 +4570,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
@@ -5125,7 +4578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
@@ -5133,7 +4586,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
@@ -5141,7 +4594,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
@@ -5149,7 +4602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
@@ -5157,7 +4610,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
@@ -5165,7 +4618,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
@@ -5173,7 +4626,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
@@ -5181,7 +4634,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>324</v>
       </c>
@@ -5189,7 +4642,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
@@ -5197,7 +4650,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
@@ -5205,7 +4658,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>330</v>
       </c>
@@ -5213,7 +4666,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>332</v>
       </c>
@@ -5221,7 +4674,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
@@ -5229,7 +4682,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>336</v>
       </c>
@@ -5237,7 +4690,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>338</v>
       </c>
@@ -5245,7 +4698,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
@@ -5253,7 +4706,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>342</v>
       </c>
@@ -5261,7 +4714,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>344</v>
       </c>
@@ -5269,7 +4722,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>346</v>
       </c>
@@ -5277,7 +4730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
@@ -5285,7 +4738,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
@@ -5293,7 +4746,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
@@ -5301,7 +4754,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
@@ -5309,7 +4762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>356</v>
       </c>
@@ -5317,7 +4770,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>358</v>
       </c>
@@ -5325,7 +4778,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
@@ -5333,7 +4786,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>362</v>
       </c>
@@ -5341,7 +4794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
@@ -5349,7 +4802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>366</v>
       </c>
@@ -5357,7 +4810,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>368</v>
       </c>
@@ -5365,7 +4818,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
@@ -5373,7 +4826,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>372</v>
       </c>
@@ -5381,7 +4834,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>374</v>
       </c>
@@ -5389,7 +4842,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>376</v>
       </c>
@@ -5397,7 +4850,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>377</v>
       </c>
@@ -5405,7 +4858,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>379</v>
       </c>
@@ -5413,7 +4866,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>381</v>
       </c>
@@ -5421,7 +4874,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>383</v>
       </c>
@@ -5429,7 +4882,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>385</v>
       </c>
@@ -5437,7 +4890,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>387</v>
       </c>
@@ -5445,7 +4898,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>389</v>
       </c>
@@ -5453,7 +4906,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>391</v>
       </c>
@@ -5461,7 +4914,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>393</v>
       </c>
@@ -5469,7 +4922,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>395</v>
       </c>
@@ -5477,7 +4930,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>397</v>
       </c>
@@ -5485,7 +4938,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>399</v>
       </c>
@@ -5493,7 +4946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>401</v>
       </c>
@@ -5501,7 +4954,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>403</v>
       </c>
@@ -5509,7 +4962,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>405</v>
       </c>
@@ -5517,7 +4970,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>407</v>
       </c>
@@ -5525,7 +4978,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>409</v>
       </c>
@@ -5533,7 +4986,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
@@ -5541,7 +4994,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
@@ -5549,7 +5002,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -5557,7 +5010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -5565,7 +5018,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -5573,7 +5026,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>421</v>
       </c>
@@ -5581,7 +5034,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>423</v>
       </c>
@@ -5589,7 +5042,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>425</v>
       </c>
@@ -5597,7 +5050,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>427</v>
       </c>
@@ -5605,7 +5058,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -5613,7 +5066,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>431</v>
       </c>
@@ -5621,7 +5074,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>432</v>
       </c>
@@ -5629,7 +5082,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>434</v>
       </c>
@@ -5637,7 +5090,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>436</v>
       </c>
@@ -5645,7 +5098,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>438</v>
       </c>
@@ -5653,7 +5106,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>440</v>
       </c>
@@ -5661,7 +5114,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>442</v>
       </c>
@@ -5669,7 +5122,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
@@ -5677,7 +5130,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>446</v>
       </c>
@@ -5685,7 +5138,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>448</v>
       </c>
@@ -5693,7 +5146,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>449</v>
       </c>
@@ -5701,7 +5154,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>451</v>
       </c>
@@ -5709,7 +5162,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>453</v>
       </c>
@@ -5717,7 +5170,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>455</v>
       </c>
@@ -5725,7 +5178,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>457</v>
       </c>
@@ -5733,7 +5186,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>459</v>
       </c>
@@ -5741,7 +5194,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>461</v>
       </c>
@@ -5749,7 +5202,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>463</v>
       </c>
@@ -5757,7 +5210,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>465</v>
       </c>
@@ -5765,7 +5218,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>467</v>
       </c>
@@ -5773,7 +5226,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>469</v>
       </c>
@@ -5781,7 +5234,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>471</v>
       </c>
@@ -5789,7 +5242,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>473</v>
       </c>
@@ -5797,7 +5250,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>475</v>
       </c>
@@ -5805,7 +5258,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>477</v>
       </c>
@@ -5813,7 +5266,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>479</v>
       </c>
@@ -5821,7 +5274,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>481</v>
       </c>
@@ -5829,7 +5282,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>483</v>
       </c>
@@ -5837,7 +5290,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>485</v>
       </c>
@@ -5845,7 +5298,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>487</v>
       </c>
@@ -5853,7 +5306,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>489</v>
       </c>
@@ -5861,7 +5314,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>491</v>
       </c>
@@ -5869,7 +5322,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>493</v>
       </c>
@@ -5877,7 +5330,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>495</v>
       </c>
@@ -5885,7 +5338,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>497</v>
       </c>
@@ -5893,7 +5346,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>499</v>
       </c>
@@ -5901,7 +5354,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>501</v>
       </c>
@@ -5909,7 +5362,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>503</v>
       </c>
@@ -5917,7 +5370,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>505</v>
       </c>
@@ -5925,7 +5378,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>507</v>
       </c>
@@ -5933,7 +5386,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>509</v>
       </c>
@@ -5941,7 +5394,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>511</v>
       </c>
@@ -5949,7 +5402,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>513</v>
       </c>
@@ -5957,7 +5410,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>515</v>
       </c>
@@ -5965,7 +5418,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>517</v>
       </c>
@@ -5973,7 +5426,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>519</v>
       </c>
@@ -5981,7 +5434,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>521</v>
       </c>
@@ -5989,7 +5442,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>523</v>
       </c>
@@ -5997,7 +5450,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>525</v>
       </c>
@@ -6005,7 +5458,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>527</v>
       </c>
@@ -6013,7 +5466,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>529</v>
       </c>
@@ -6021,7 +5474,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>531</v>
       </c>
@@ -6029,7 +5482,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>533</v>
       </c>
@@ -6037,7 +5490,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>535</v>
       </c>
@@ -6045,7 +5498,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>537</v>
       </c>
@@ -6053,7 +5506,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>539</v>
       </c>
@@ -6061,7 +5514,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>540</v>
       </c>
@@ -6069,7 +5522,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>542</v>
       </c>
@@ -6077,7 +5530,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>544</v>
       </c>
@@ -6085,7 +5538,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>546</v>
       </c>
@@ -6093,7 +5546,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>548</v>
       </c>
@@ -6101,7 +5554,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>550</v>
       </c>
@@ -6109,7 +5562,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>552</v>
       </c>
@@ -6117,7 +5570,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>554</v>
       </c>
@@ -6125,7 +5578,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>556</v>
       </c>
@@ -6133,7 +5586,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>558</v>
       </c>
@@ -6141,7 +5594,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>560</v>
       </c>
@@ -6149,7 +5602,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>562</v>
       </c>
@@ -6157,7 +5610,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>564</v>
       </c>
@@ -6165,7 +5618,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>566</v>
       </c>
@@ -6173,7 +5626,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>568</v>
       </c>
@@ -6181,7 +5634,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>570</v>
       </c>
@@ -6189,7 +5642,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>572</v>
       </c>
@@ -6197,7 +5650,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>574</v>
       </c>
@@ -6205,7 +5658,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>576</v>
       </c>
@@ -6213,7 +5666,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>578</v>
       </c>
@@ -6221,7 +5674,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>579</v>
       </c>
@@ -6229,7 +5682,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>581</v>
       </c>
@@ -6237,7 +5690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>582</v>
       </c>
@@ -6245,7 +5698,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>583</v>
       </c>
@@ -6253,7 +5706,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>585</v>
       </c>
@@ -6261,7 +5714,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>587</v>
       </c>
@@ -6269,7 +5722,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>589</v>
       </c>
@@ -6277,7 +5730,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>591</v>
       </c>
@@ -6285,7 +5738,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>593</v>
       </c>
@@ -6293,7 +5746,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>595</v>
       </c>
@@ -6301,7 +5754,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>597</v>
       </c>
@@ -6309,7 +5762,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>599</v>
       </c>
@@ -6317,7 +5770,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>601</v>
       </c>
@@ -6325,7 +5778,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>602</v>
       </c>
@@ -6333,7 +5786,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>604</v>
       </c>
@@ -6341,7 +5794,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>606</v>
       </c>
@@ -6349,7 +5802,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>607</v>
       </c>
@@ -6357,7 +5810,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>609</v>
       </c>
@@ -6365,7 +5818,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>611</v>
       </c>
@@ -6373,7 +5826,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>613</v>
       </c>
@@ -6381,7 +5834,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>615</v>
       </c>
@@ -6389,7 +5842,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>617</v>
       </c>
@@ -6397,7 +5850,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>619</v>
       </c>
@@ -6405,7 +5858,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>621</v>
       </c>
@@ -6413,7 +5866,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>623</v>
       </c>
@@ -6421,7 +5874,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>625</v>
       </c>
@@ -6429,7 +5882,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>627</v>
       </c>
@@ -6437,7 +5890,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>629</v>
       </c>
@@ -6445,7 +5898,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>631</v>
       </c>
@@ -6453,7 +5906,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>633</v>
       </c>
@@ -6461,7 +5914,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>635</v>
       </c>
@@ -6469,7 +5922,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>637</v>
       </c>
@@ -6477,7 +5930,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>639</v>
       </c>
@@ -6485,7 +5938,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>641</v>
       </c>
@@ -6493,7 +5946,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>643</v>
       </c>
@@ -6501,7 +5954,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>645</v>
       </c>
@@ -6509,7 +5962,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>647</v>
       </c>
@@ -6517,7 +5970,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>649</v>
       </c>
@@ -6525,7 +5978,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>651</v>
       </c>
@@ -6533,7 +5986,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>653</v>
       </c>
@@ -6541,7 +5994,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>655</v>
       </c>
@@ -6549,7 +6002,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>657</v>
       </c>
@@ -6557,7 +6010,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>659</v>
       </c>
@@ -6565,7 +6018,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>661</v>
       </c>
@@ -6573,7 +6026,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>663</v>
       </c>
@@ -6581,7 +6034,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>665</v>
       </c>
@@ -6589,7 +6042,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>667</v>
       </c>
@@ -6597,7 +6050,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>669</v>
       </c>
@@ -6605,7 +6058,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>671</v>
       </c>
@@ -6613,7 +6066,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>673</v>
       </c>
@@ -6621,7 +6074,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>675</v>
       </c>
@@ -6629,7 +6082,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>677</v>
       </c>
@@ -6637,7 +6090,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>679</v>
       </c>
@@ -6645,7 +6098,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>681</v>
       </c>
@@ -6653,7 +6106,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>683</v>
       </c>
@@ -6661,7 +6114,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>685</v>
       </c>
@@ -6669,7 +6122,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>687</v>
       </c>
@@ -6677,7 +6130,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>689</v>
       </c>
@@ -6685,7 +6138,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>691</v>
       </c>
@@ -6693,7 +6146,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>693</v>
       </c>
@@ -6701,7 +6154,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>695</v>
       </c>
@@ -6709,7 +6162,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
         <v>697</v>
       </c>
@@ -6717,7 +6170,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
         <v>699</v>
       </c>
@@ -6725,7 +6178,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>701</v>
       </c>
@@ -6733,7 +6186,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>703</v>
       </c>
@@ -6741,7 +6194,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>705</v>
       </c>
@@ -6749,7 +6202,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>707</v>
       </c>
@@ -6757,7 +6210,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>709</v>
       </c>
@@ -6765,7 +6218,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>711</v>
       </c>
@@ -6773,7 +6226,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>713</v>
       </c>
@@ -6781,7 +6234,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>715</v>
       </c>
@@ -6789,7 +6242,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>716</v>
       </c>
@@ -6797,7 +6250,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>718</v>
       </c>
@@ -6805,7 +6258,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>720</v>
       </c>
@@ -6813,7 +6266,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>722</v>
       </c>
@@ -6821,7 +6274,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>724</v>
       </c>
@@ -6829,7 +6282,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>726</v>
       </c>
@@ -6837,7 +6290,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>728</v>
       </c>
@@ -6845,7 +6298,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>730</v>
       </c>
@@ -6853,7 +6306,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>732</v>
       </c>
@@ -6861,7 +6314,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>734</v>
       </c>
@@ -6869,7 +6322,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>736</v>
       </c>
@@ -6877,7 +6330,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>738</v>
       </c>
@@ -6885,7 +6338,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>740</v>
       </c>
@@ -6893,7 +6346,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>742</v>
       </c>
@@ -6901,7 +6354,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>744</v>
       </c>
@@ -6909,7 +6362,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>746</v>
       </c>
@@ -6917,7 +6370,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>748</v>
       </c>
@@ -6925,7 +6378,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>750</v>
       </c>
@@ -6933,7 +6386,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>752</v>
       </c>
@@ -6941,7 +6394,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>754</v>
       </c>
@@ -6949,7 +6402,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>756</v>
       </c>
@@ -6957,7 +6410,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>758</v>
       </c>
@@ -6965,7 +6418,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>760</v>
       </c>
@@ -6973,7 +6426,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>762</v>
       </c>
@@ -6981,7 +6434,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>764</v>
       </c>
@@ -6989,7 +6442,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>766</v>
       </c>
@@ -6997,7 +6450,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>768</v>
       </c>
@@ -7005,7 +6458,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>770</v>
       </c>
@@ -7013,7 +6466,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>772</v>
       </c>
@@ -7021,7 +6474,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>774</v>
       </c>
@@ -7029,7 +6482,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>776</v>
       </c>
@@ -7037,7 +6490,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>778</v>
       </c>
@@ -7045,7 +6498,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>780</v>
       </c>
@@ -7053,7 +6506,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>782</v>
       </c>
@@ -7061,7 +6514,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>784</v>
       </c>
@@ -7069,7 +6522,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>786</v>
       </c>
@@ -7077,7 +6530,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>788</v>
       </c>
@@ -7085,7 +6538,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>790</v>
       </c>
@@ -7093,7 +6546,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>792</v>
       </c>
@@ -7101,7 +6554,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>794</v>
       </c>
@@ -7109,7 +6562,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>796</v>
       </c>
@@ -7117,7 +6570,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>798</v>
       </c>
@@ -7125,7 +6578,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>800</v>
       </c>
@@ -7133,7 +6586,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>802</v>
       </c>
@@ -7141,7 +6594,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>804</v>
       </c>
@@ -7149,7 +6602,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>806</v>
       </c>
@@ -7157,7 +6610,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>808</v>
       </c>
@@ -7165,7 +6618,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>809</v>
       </c>
@@ -7173,7 +6626,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>811</v>
       </c>
@@ -7181,7 +6634,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
         <v>813</v>
       </c>
@@ -7189,7 +6642,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>815</v>
       </c>
@@ -7197,7 +6650,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
         <v>817</v>
       </c>
@@ -7205,7 +6658,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>819</v>
       </c>
@@ -7213,7 +6666,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>821</v>
       </c>
@@ -7221,7 +6674,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>823</v>
       </c>
@@ -7229,7 +6682,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
         <v>825</v>
       </c>
@@ -7237,7 +6690,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>826</v>
       </c>
@@ -7245,7 +6698,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>828</v>
       </c>
@@ -7253,7 +6706,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
         <v>830</v>
       </c>
@@ -7261,7 +6714,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>832</v>
       </c>
@@ -7269,7 +6722,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>834</v>
       </c>
@@ -7277,7 +6730,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>836</v>
       </c>
@@ -7285,7 +6738,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>838</v>
       </c>
@@ -7293,7 +6746,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>840</v>
       </c>
@@ -7301,7 +6754,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>842</v>
       </c>
@@ -7309,7 +6762,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>844</v>
       </c>
@@ -7317,7 +6770,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
         <v>846</v>
       </c>
@@ -7325,7 +6778,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>848</v>
       </c>
@@ -7333,7 +6786,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
         <v>850</v>
       </c>
@@ -7341,7 +6794,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>852</v>
       </c>
@@ -7349,7 +6802,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>854</v>
       </c>
@@ -7357,7 +6810,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
         <v>856</v>
       </c>
@@ -7365,7 +6818,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
         <v>858</v>
       </c>
@@ -7373,7 +6826,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>860</v>
       </c>
@@ -7381,7 +6834,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
         <v>862</v>
       </c>
@@ -7389,7 +6842,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>864</v>
       </c>
@@ -7397,7 +6850,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
         <v>866</v>
       </c>
@@ -7405,7 +6858,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
         <v>868</v>
       </c>
@@ -7413,7 +6866,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>870</v>
       </c>
@@ -7421,7 +6874,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>872</v>
       </c>
@@ -7429,7 +6882,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>874</v>
       </c>
@@ -7437,7 +6890,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>875</v>
       </c>
@@ -7445,7 +6898,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>877</v>
       </c>
@@ -7453,7 +6906,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>879</v>
       </c>
@@ -7461,7 +6914,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>881</v>
       </c>
@@ -7469,7 +6922,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>883</v>
       </c>
@@ -7477,7 +6930,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>885</v>
       </c>
@@ -7485,7 +6938,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>887</v>
       </c>
@@ -7493,7 +6946,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>888</v>
       </c>
@@ -7501,7 +6954,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>890</v>
       </c>
@@ -7509,7 +6962,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>892</v>
       </c>
@@ -7517,7 +6970,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>894</v>
       </c>
@@ -7525,7 +6978,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>896</v>
       </c>
@@ -7533,7 +6986,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>898</v>
       </c>
@@ -7541,7 +6994,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>900</v>
       </c>
@@ -7549,7 +7002,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>902</v>
       </c>
@@ -7557,7 +7010,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>904</v>
       </c>
@@ -7565,7 +7018,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>906</v>
       </c>
@@ -7573,7 +7026,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>908</v>
       </c>
@@ -7581,7 +7034,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>910</v>
       </c>
@@ -7589,7 +7042,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>912</v>
       </c>
@@ -7597,7 +7050,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>914</v>
       </c>
@@ -7605,7 +7058,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>916</v>
       </c>
@@ -7613,7 +7066,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>918</v>
       </c>
@@ -7621,7 +7074,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>920</v>
       </c>
@@ -7629,7 +7082,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>922</v>
       </c>
@@ -7637,7 +7090,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>924</v>
       </c>
@@ -7645,7 +7098,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>926</v>
       </c>
@@ -7653,7 +7106,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>928</v>
       </c>
@@ -7661,7 +7114,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>930</v>
       </c>
@@ -7669,7 +7122,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>932</v>
       </c>
@@ -7677,7 +7130,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>934</v>
       </c>
@@ -7685,7 +7138,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>936</v>
       </c>
@@ -7693,7 +7146,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>938</v>
       </c>
@@ -7701,7 +7154,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>939</v>
       </c>
@@ -7709,7 +7162,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>940</v>
       </c>
@@ -7717,7 +7170,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>942</v>
       </c>
@@ -7725,7 +7178,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>944</v>
       </c>
@@ -7733,7 +7186,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>946</v>
       </c>
@@ -7741,7 +7194,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>948</v>
       </c>
@@ -7749,7 +7202,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>950</v>
       </c>
@@ -7757,7 +7210,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>952</v>
       </c>
@@ -7765,7 +7218,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>954</v>
       </c>
@@ -7773,7 +7226,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>955</v>
       </c>
@@ -7781,7 +7234,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>956</v>
       </c>
@@ -7789,7 +7242,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>958</v>
       </c>
@@ -7797,7 +7250,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>960</v>
       </c>
@@ -7805,7 +7258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>961</v>
       </c>
@@ -7813,7 +7266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>962</v>
       </c>
@@ -7821,7 +7274,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>964</v>
       </c>
@@ -7829,7 +7282,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>966</v>
       </c>
@@ -7837,7 +7290,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>968</v>
       </c>
@@ -7845,8 +7298,49 @@
         <v>969</v>
       </c>
     </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A501" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoModuleProject\hksplitmaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1090">
   <si>
     <t>Greenpath</t>
   </si>
@@ -1425,7 +1420,7 @@
     <t>Grimmchild Lvl</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>格林之子等级</t>
   </si>
   <si>
     <t>Grubberfly's Elegy</t>
@@ -2424,7 +2419,7 @@
     <t>A1uba%</t>
   </si>
   <si>
-    <t>阿鲁巴一只</t>
+    <t>阿鲁巴一只%</t>
   </si>
   <si>
     <t>Vessel Fragments</t>
@@ -2640,7 +2635,7 @@
     <t>Al2ba%</t>
   </si>
   <si>
-    <t>阿鲁巴两只</t>
+    <t>阿鲁巴两只%</t>
   </si>
   <si>
     <t>All Charm Notches</t>
@@ -2932,38 +2927,37 @@
   </si>
   <si>
     <t>Elegy%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蜕变挽歌%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg (101)</t>
   </si>
   <si>
     <t>腐臭蛋101个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Egg (101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Hallownest Seals</t>
   </si>
   <si>
     <t>全圣巢印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Hallownest Seals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>All King's Idols</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全国王神像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Blessing</t>
     </r>
     <r>
@@ -2971,24 +2965,357 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>%</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>祝福%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storerooms</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>King's Station</t>
+  </si>
+  <si>
+    <t>Basin Fountain</t>
+  </si>
+  <si>
+    <t>盆地喷泉</t>
+  </si>
+  <si>
+    <t>Weaver's Chest</t>
+  </si>
+  <si>
+    <t>编织者吉欧堆</t>
+  </si>
+  <si>
+    <t>Idol in Crystal Peaks</t>
+  </si>
+  <si>
+    <t>水晶山峰神像</t>
+  </si>
+  <si>
+    <t>Idol after Dung Defender</t>
+  </si>
+  <si>
+    <t>粪虫防御者神像</t>
+  </si>
+  <si>
+    <t>Idol in Howling Cliffs</t>
+  </si>
+  <si>
+    <t>呼啸悬崖神像</t>
+  </si>
+  <si>
+    <t>Idol below Zote Arena</t>
+  </si>
+  <si>
+    <t>左特下方神像</t>
+  </si>
+  <si>
+    <t>Idol at Great Hopper</t>
+  </si>
+  <si>
+    <t>大跳虫神像</t>
+  </si>
+  <si>
+    <t>Idol at Pale Lurker</t>
+  </si>
+  <si>
+    <t>苍白潜伏者神像</t>
+  </si>
+  <si>
+    <t>Idol in Spirit's Glade</t>
+  </si>
+  <si>
+    <t>灵魂沼地神像</t>
+  </si>
+  <si>
+    <t>Idol from Grubfather</t>
+  </si>
+  <si>
+    <t>虫爷爷神像</t>
+  </si>
+  <si>
+    <t>Rafters Seal</t>
+  </si>
+  <si>
+    <t>平台印章</t>
+  </si>
+  <si>
+    <t>Sanctum Seal</t>
+  </si>
+  <si>
+    <t>圣所印章</t>
+  </si>
+  <si>
+    <t>Crypts Seal</t>
+  </si>
+  <si>
+    <t>地窖印章</t>
+  </si>
+  <si>
+    <t>Seer Seal</t>
+  </si>
+  <si>
+    <t>先知印章</t>
+  </si>
+  <si>
+    <t>Watcher Knights Seal</t>
+  </si>
+  <si>
+    <t>守望者骑士印章</t>
+  </si>
+  <si>
+    <t>King's Station Seal</t>
+  </si>
+  <si>
+    <t>国王驿站印章</t>
+  </si>
+  <si>
+    <t>Well Seal</t>
+  </si>
+  <si>
+    <t>井印章</t>
+  </si>
+  <si>
+    <t>Upper Fog Canyon Seal</t>
+  </si>
+  <si>
+    <t>雾之峡谷入口印章</t>
+  </si>
+  <si>
+    <t>Lifeblood Seal</t>
+  </si>
+  <si>
+    <t>生命血印章</t>
+  </si>
+  <si>
+    <t>Acid Bridge Seal</t>
+  </si>
+  <si>
+    <t>酸水桥印章</t>
+  </si>
+  <si>
+    <t>Willoh Seal</t>
+  </si>
+  <si>
+    <t>维洛印章</t>
+  </si>
+  <si>
+    <t>Sporg Seal</t>
+  </si>
+  <si>
+    <t>核弹菇印章</t>
+  </si>
+  <si>
+    <t>Mantis Lords Seal</t>
+  </si>
+  <si>
+    <t>螳螂领主印章</t>
+  </si>
+  <si>
+    <t>Deepnest Seal</t>
+  </si>
+  <si>
+    <t>深邃巢穴印章</t>
+  </si>
+  <si>
+    <t>Frogs Seal</t>
+  </si>
+  <si>
+    <t>野兽巢穴印章</t>
+  </si>
+  <si>
+    <t>Grubfather Seal</t>
+  </si>
+  <si>
+    <t>虫爷爷印章</t>
+  </si>
+  <si>
+    <t>Salubra Charms</t>
+  </si>
+  <si>
+    <t>萨鲁巴护符槽</t>
+  </si>
+  <si>
+    <t>Journal outside Greenpath Stag</t>
+  </si>
+  <si>
+    <t>苍绿鹿角站外日记</t>
+  </si>
+  <si>
+    <t>Journal above Mantis Village</t>
+  </si>
+  <si>
+    <t>螳螂村上方日记</t>
+  </si>
+  <si>
+    <t>Journal below Shrumal Ogres</t>
+  </si>
+  <si>
+    <t>拜年菇下方日记</t>
+  </si>
+  <si>
+    <t>Journal below Stone Sanctuary</t>
+  </si>
+  <si>
+    <t>石之庇护所下方日记</t>
+  </si>
+  <si>
+    <t>Journal above King's Station</t>
+  </si>
+  <si>
+    <t>国王驿站上方日记</t>
+  </si>
+  <si>
+    <t>Journal at City Storerooms</t>
+  </si>
+  <si>
+    <t>城市仓库日记</t>
+  </si>
+  <si>
+    <t>Journal in Crystal Peaks</t>
+  </si>
+  <si>
+    <t>水晶山峰日记</t>
+  </si>
+  <si>
+    <t>Journal in Howling Cliffs</t>
+  </si>
+  <si>
+    <t>呼啸悬崖日记</t>
+  </si>
+  <si>
+    <t>Journal below Soul Eater</t>
+  </si>
+  <si>
+    <t>噬魂者下方日记</t>
+  </si>
+  <si>
+    <t>Journal in Pleasure House</t>
+  </si>
+  <si>
+    <t>欢乐之屋日记</t>
+  </si>
+  <si>
+    <t>Journal below Broken Bridge</t>
+  </si>
+  <si>
+    <t>断桥下方日记</t>
+  </si>
+  <si>
+    <t>Journal at Kingdom's Edge Entrance</t>
+  </si>
+  <si>
+    <t>王国边境入口日记</t>
+  </si>
+  <si>
+    <t>Journal at Camp Bench</t>
+  </si>
+  <si>
+    <t>帐篷日记</t>
+  </si>
+  <si>
+    <t>Journal near Markoth</t>
+  </si>
+  <si>
+    <t>马科斯日记</t>
+  </si>
+  <si>
+    <t>Hornet (Protector)</t>
+  </si>
+  <si>
+    <t>守护者大黄蜂</t>
+  </si>
+  <si>
+    <t>Hornet (Sentinel)</t>
+  </si>
+  <si>
+    <t>岗哨大黄蜂</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Grubfather</t>
+  </si>
+  <si>
+    <t>虫爷爷</t>
+  </si>
+  <si>
+    <t>Spike Grub</t>
+  </si>
+  <si>
+    <t>尖刺幼虫</t>
+  </si>
+  <si>
+    <t>Wall Grub</t>
+  </si>
+  <si>
+    <t>隐藏墙幼虫</t>
+  </si>
+  <si>
+    <t>Guarded Grub</t>
+  </si>
+  <si>
+    <t>龙牙哥幼虫</t>
+  </si>
+  <si>
+    <t>Moss Knight Grub</t>
+  </si>
+  <si>
+    <t>苔藓骑士幼虫</t>
+  </si>
+  <si>
+    <t>Cornifer Grub</t>
+  </si>
+  <si>
+    <t>柯尼法幼虫</t>
+  </si>
+  <si>
+    <t>Acid Grub</t>
+  </si>
+  <si>
+    <t>酸水幼虫</t>
+  </si>
+  <si>
+    <t>Bouncy Grub</t>
+  </si>
+  <si>
+    <t>弹跳幼虫</t>
+  </si>
+  <si>
+    <t>Audience (manual split)</t>
+  </si>
+  <si>
+    <t>听众（手动分段）</t>
+  </si>
+  <si>
+    <t>A1uba</t>
+  </si>
+  <si>
+    <t>阿鲁巴一只</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2997,29 +3324,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3027,9 +3677,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3040,21 +3932,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3312,25 +4248,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +4306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +4314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3386,7 +4322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3394,7 +4330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +4338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3410,7 +4346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +4354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3426,7 +4362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +4370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3442,7 +4378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3450,7 +4386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3458,7 +4394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3466,7 +4402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3474,7 +4410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3482,7 +4418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3490,7 +4426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3498,7 +4434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3506,7 +4442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -3514,7 +4450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3522,7 +4458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +4466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +4474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3546,7 +4482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3554,7 +4490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3562,7 +4498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3570,7 +4506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3578,7 +4514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3586,7 +4522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3594,7 +4530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3602,7 +4538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +4546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3618,7 +4554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -3626,7 +4562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -3634,7 +4570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3642,7 +4578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -3650,7 +4586,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3658,7 +4594,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -3666,7 +4602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3674,7 +4610,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -3682,7 +4618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -3690,7 +4626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -3698,7 +4634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -3706,7 +4642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3714,7 +4650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -3722,7 +4658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -3730,7 +4666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3738,7 +4674,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3746,7 +4682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3754,7 +4690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3762,7 +4698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3770,7 +4706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3778,7 +4714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3786,7 +4722,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3794,7 +4730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3802,7 +4738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -3810,7 +4746,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -3818,7 +4754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -3826,7 +4762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -3834,7 +4770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -3842,7 +4778,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -3850,7 +4786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -3858,7 +4794,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -3866,7 +4802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -3874,7 +4810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -3882,7 +4818,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -3890,7 +4826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -3898,7 +4834,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -3906,7 +4842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -3914,7 +4850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -3922,7 +4858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -3930,7 +4866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -3938,7 +4874,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -3946,7 +4882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -3954,7 +4890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -3962,7 +4898,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -3970,7 +4906,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3978,7 +4914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -3986,7 +4922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -3994,7 +4930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -4002,7 +4938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -4010,7 +4946,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -4018,7 +4954,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -4026,7 +4962,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -4034,7 +4970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -4042,7 +4978,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -4050,7 +4986,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -4058,7 +4994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -4066,7 +5002,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -4074,7 +5010,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -4082,7 +5018,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -4090,7 +5026,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -4098,7 +5034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -4106,7 +5042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -4114,7 +5050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
@@ -4122,7 +5058,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
@@ -4130,7 +5066,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>199</v>
       </c>
@@ -4138,7 +5074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
@@ -4146,7 +5082,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
@@ -4154,7 +5090,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
@@ -4162,7 +5098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>207</v>
       </c>
@@ -4170,7 +5106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>209</v>
       </c>
@@ -4178,7 +5114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>211</v>
       </c>
@@ -4186,7 +5122,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>213</v>
       </c>
@@ -4194,7 +5130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
@@ -4202,7 +5138,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>217</v>
       </c>
@@ -4210,7 +5146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
@@ -4218,7 +5154,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
@@ -4226,7 +5162,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
@@ -4234,7 +5170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
@@ -4242,7 +5178,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
@@ -4250,7 +5186,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
@@ -4258,7 +5194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -4266,7 +5202,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>233</v>
       </c>
@@ -4274,7 +5210,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
@@ -4282,7 +5218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
@@ -4290,7 +5226,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
@@ -4298,7 +5234,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
@@ -4306,7 +5242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
@@ -4314,7 +5250,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
@@ -4322,7 +5258,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
@@ -4330,7 +5266,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>249</v>
       </c>
@@ -4338,7 +5274,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
@@ -4346,7 +5282,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -4354,7 +5290,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -4362,7 +5298,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
@@ -4370,7 +5306,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
@@ -4378,7 +5314,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
@@ -4386,7 +5322,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -4394,7 +5330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -4402,7 +5338,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
@@ -4410,7 +5346,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>269</v>
       </c>
@@ -4418,7 +5354,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
@@ -4426,7 +5362,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
@@ -4434,7 +5370,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -4442,7 +5378,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>277</v>
       </c>
@@ -4450,7 +5386,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>279</v>
       </c>
@@ -4458,7 +5394,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>281</v>
       </c>
@@ -4466,7 +5402,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -4474,7 +5410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -4482,7 +5418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
@@ -4490,7 +5426,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
@@ -4498,7 +5434,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
@@ -4506,7 +5442,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
@@ -4514,7 +5450,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
@@ -4522,7 +5458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
@@ -4530,7 +5466,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
@@ -4538,7 +5474,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>300</v>
       </c>
@@ -4546,7 +5482,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
@@ -4554,7 +5490,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
@@ -4562,7 +5498,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
@@ -4570,7 +5506,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
@@ -4578,7 +5514,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
@@ -4586,7 +5522,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
@@ -4594,7 +5530,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
@@ -4602,7 +5538,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
@@ -4610,7 +5546,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
@@ -4618,7 +5554,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
@@ -4626,7 +5562,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
@@ -4634,7 +5570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>324</v>
       </c>
@@ -4642,7 +5578,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
@@ -4650,7 +5586,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
@@ -4658,7 +5594,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>330</v>
       </c>
@@ -4666,7 +5602,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>332</v>
       </c>
@@ -4674,7 +5610,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
@@ -4682,7 +5618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
         <v>336</v>
       </c>
@@ -4690,7 +5626,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
         <v>338</v>
       </c>
@@ -4698,7 +5634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
@@ -4706,7 +5642,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
         <v>342</v>
       </c>
@@ -4714,7 +5650,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>344</v>
       </c>
@@ -4722,7 +5658,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>346</v>
       </c>
@@ -4730,7 +5666,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
@@ -4738,7 +5674,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
@@ -4746,7 +5682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
@@ -4754,7 +5690,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
@@ -4762,7 +5698,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>356</v>
       </c>
@@ -4770,7 +5706,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>358</v>
       </c>
@@ -4778,7 +5714,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
@@ -4786,7 +5722,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>362</v>
       </c>
@@ -4794,7 +5730,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
@@ -4802,7 +5738,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>366</v>
       </c>
@@ -4810,7 +5746,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
         <v>368</v>
       </c>
@@ -4818,7 +5754,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
@@ -4826,7 +5762,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
         <v>372</v>
       </c>
@@ -4834,7 +5770,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>374</v>
       </c>
@@ -4842,7 +5778,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
         <v>376</v>
       </c>
@@ -4850,7 +5786,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
         <v>377</v>
       </c>
@@ -4858,7 +5794,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
         <v>379</v>
       </c>
@@ -4866,7 +5802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>381</v>
       </c>
@@ -4874,7 +5810,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
         <v>383</v>
       </c>
@@ -4882,7 +5818,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>385</v>
       </c>
@@ -4890,7 +5826,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>387</v>
       </c>
@@ -4898,7 +5834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>389</v>
       </c>
@@ -4906,7 +5842,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>391</v>
       </c>
@@ -4914,7 +5850,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>393</v>
       </c>
@@ -4922,7 +5858,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>395</v>
       </c>
@@ -4930,7 +5866,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>397</v>
       </c>
@@ -4938,7 +5874,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>399</v>
       </c>
@@ -4946,7 +5882,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>401</v>
       </c>
@@ -4954,7 +5890,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>403</v>
       </c>
@@ -4962,7 +5898,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>405</v>
       </c>
@@ -4970,7 +5906,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>407</v>
       </c>
@@ -4978,7 +5914,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>409</v>
       </c>
@@ -4986,7 +5922,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
@@ -4994,7 +5930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
@@ -5002,7 +5938,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -5010,7 +5946,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -5018,7 +5954,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -5026,7 +5962,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>421</v>
       </c>
@@ -5034,7 +5970,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>423</v>
       </c>
@@ -5042,7 +5978,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>425</v>
       </c>
@@ -5050,7 +5986,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>427</v>
       </c>
@@ -5058,7 +5994,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>429</v>
       </c>
@@ -5066,7 +6002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
         <v>431</v>
       </c>
@@ -5074,7 +6010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
         <v>432</v>
       </c>
@@ -5082,7 +6018,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>434</v>
       </c>
@@ -5090,7 +6026,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>436</v>
       </c>
@@ -5098,7 +6034,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>438</v>
       </c>
@@ -5106,7 +6042,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>440</v>
       </c>
@@ -5114,7 +6050,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>442</v>
       </c>
@@ -5122,7 +6058,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
@@ -5130,7 +6066,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>446</v>
       </c>
@@ -5138,7 +6074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>448</v>
       </c>
@@ -5146,7 +6082,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>449</v>
       </c>
@@ -5154,7 +6090,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>451</v>
       </c>
@@ -5162,7 +6098,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>453</v>
       </c>
@@ -5170,7 +6106,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>455</v>
       </c>
@@ -5178,7 +6114,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>457</v>
       </c>
@@ -5186,7 +6122,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>459</v>
       </c>
@@ -5194,7 +6130,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>461</v>
       </c>
@@ -5202,7 +6138,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>463</v>
       </c>
@@ -5210,7 +6146,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>465</v>
       </c>
@@ -5218,7 +6154,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>467</v>
       </c>
@@ -5226,7 +6162,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
         <v>469</v>
       </c>
@@ -5234,7 +6170,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>471</v>
       </c>
@@ -5242,7 +6178,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
         <v>473</v>
       </c>
@@ -5250,7 +6186,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
         <v>475</v>
       </c>
@@ -5258,7 +6194,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
         <v>477</v>
       </c>
@@ -5266,7 +6202,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>479</v>
       </c>
@@ -5274,7 +6210,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
         <v>481</v>
       </c>
@@ -5282,7 +6218,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>483</v>
       </c>
@@ -5290,7 +6226,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
         <v>485</v>
       </c>
@@ -5298,7 +6234,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
         <v>487</v>
       </c>
@@ -5306,7 +6242,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
         <v>489</v>
       </c>
@@ -5314,7 +6250,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
         <v>491</v>
       </c>
@@ -5322,7 +6258,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
         <v>493</v>
       </c>
@@ -5330,7 +6266,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>495</v>
       </c>
@@ -5338,7 +6274,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
         <v>497</v>
       </c>
@@ -5346,7 +6282,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
         <v>499</v>
       </c>
@@ -5354,7 +6290,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
         <v>501</v>
       </c>
@@ -5362,7 +6298,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
         <v>503</v>
       </c>
@@ -5370,7 +6306,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
         <v>505</v>
       </c>
@@ -5378,7 +6314,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
         <v>507</v>
       </c>
@@ -5386,7 +6322,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
         <v>509</v>
       </c>
@@ -5394,7 +6330,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
         <v>511</v>
       </c>
@@ -5402,7 +6338,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
         <v>513</v>
       </c>
@@ -5410,7 +6346,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
         <v>515</v>
       </c>
@@ -5418,7 +6354,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
         <v>517</v>
       </c>
@@ -5426,7 +6362,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
         <v>519</v>
       </c>
@@ -5434,7 +6370,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
         <v>521</v>
       </c>
@@ -5442,7 +6378,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
         <v>523</v>
       </c>
@@ -5450,7 +6386,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
         <v>525</v>
       </c>
@@ -5458,7 +6394,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
         <v>527</v>
       </c>
@@ -5466,7 +6402,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
         <v>529</v>
       </c>
@@ -5474,7 +6410,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
         <v>531</v>
       </c>
@@ -5482,7 +6418,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
         <v>533</v>
       </c>
@@ -5490,7 +6426,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
         <v>535</v>
       </c>
@@ -5498,7 +6434,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
         <v>537</v>
       </c>
@@ -5506,7 +6442,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
         <v>539</v>
       </c>
@@ -5514,7 +6450,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
         <v>540</v>
       </c>
@@ -5522,7 +6458,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
         <v>542</v>
       </c>
@@ -5530,7 +6466,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
         <v>544</v>
       </c>
@@ -5538,7 +6474,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
         <v>546</v>
       </c>
@@ -5546,7 +6482,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
         <v>548</v>
       </c>
@@ -5554,7 +6490,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
         <v>550</v>
       </c>
@@ -5562,7 +6498,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
         <v>552</v>
       </c>
@@ -5570,7 +6506,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
         <v>554</v>
       </c>
@@ -5578,7 +6514,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
         <v>556</v>
       </c>
@@ -5586,7 +6522,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
         <v>558</v>
       </c>
@@ -5594,7 +6530,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>560</v>
       </c>
@@ -5602,7 +6538,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
         <v>562</v>
       </c>
@@ -5610,7 +6546,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
         <v>564</v>
       </c>
@@ -5618,7 +6554,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
         <v>566</v>
       </c>
@@ -5626,7 +6562,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
         <v>568</v>
       </c>
@@ -5634,7 +6570,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
         <v>570</v>
       </c>
@@ -5642,7 +6578,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
         <v>572</v>
       </c>
@@ -5650,7 +6586,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
         <v>574</v>
       </c>
@@ -5658,7 +6594,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
         <v>576</v>
       </c>
@@ -5666,7 +6602,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
         <v>578</v>
       </c>
@@ -5674,7 +6610,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
         <v>579</v>
       </c>
@@ -5682,7 +6618,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
         <v>581</v>
       </c>
@@ -5690,7 +6626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
         <v>582</v>
       </c>
@@ -5698,7 +6634,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
         <v>583</v>
       </c>
@@ -5706,7 +6642,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
         <v>585</v>
       </c>
@@ -5714,7 +6650,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
         <v>587</v>
       </c>
@@ -5722,7 +6658,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
         <v>589</v>
       </c>
@@ -5730,7 +6666,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
         <v>591</v>
       </c>
@@ -5738,7 +6674,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
         <v>593</v>
       </c>
@@ -5746,7 +6682,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
         <v>595</v>
       </c>
@@ -5754,7 +6690,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
         <v>597</v>
       </c>
@@ -5762,7 +6698,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>599</v>
       </c>
@@ -5770,7 +6706,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>601</v>
       </c>
@@ -5778,7 +6714,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>602</v>
       </c>
@@ -5786,7 +6722,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>604</v>
       </c>
@@ -5794,7 +6730,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
         <v>606</v>
       </c>
@@ -5802,7 +6738,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>607</v>
       </c>
@@ -5810,7 +6746,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>609</v>
       </c>
@@ -5818,7 +6754,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>611</v>
       </c>
@@ -5826,7 +6762,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>613</v>
       </c>
@@ -5834,7 +6770,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>615</v>
       </c>
@@ -5842,7 +6778,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>617</v>
       </c>
@@ -5850,7 +6786,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>619</v>
       </c>
@@ -5858,7 +6794,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>621</v>
       </c>
@@ -5866,7 +6802,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>623</v>
       </c>
@@ -5874,7 +6810,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>625</v>
       </c>
@@ -5882,7 +6818,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>627</v>
       </c>
@@ -5890,7 +6826,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
         <v>629</v>
       </c>
@@ -5898,7 +6834,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
         <v>631</v>
       </c>
@@ -5906,7 +6842,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>633</v>
       </c>
@@ -5914,7 +6850,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
         <v>635</v>
       </c>
@@ -5922,7 +6858,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>637</v>
       </c>
@@ -5930,7 +6866,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>639</v>
       </c>
@@ -5938,7 +6874,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
         <v>641</v>
       </c>
@@ -5946,7 +6882,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
         <v>643</v>
       </c>
@@ -5954,7 +6890,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
         <v>645</v>
       </c>
@@ -5962,7 +6898,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>647</v>
       </c>
@@ -5970,7 +6906,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>649</v>
       </c>
@@ -5978,7 +6914,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>651</v>
       </c>
@@ -5986,7 +6922,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
         <v>653</v>
       </c>
@@ -5994,7 +6930,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
         <v>655</v>
       </c>
@@ -6002,7 +6938,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>657</v>
       </c>
@@ -6010,7 +6946,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
         <v>659</v>
       </c>
@@ -6018,7 +6954,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
         <v>661</v>
       </c>
@@ -6026,7 +6962,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
         <v>663</v>
       </c>
@@ -6034,7 +6970,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
         <v>665</v>
       </c>
@@ -6042,7 +6978,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
         <v>667</v>
       </c>
@@ -6050,7 +6986,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
         <v>669</v>
       </c>
@@ -6058,7 +6994,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
         <v>671</v>
       </c>
@@ -6066,7 +7002,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
         <v>673</v>
       </c>
@@ -6074,7 +7010,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
         <v>675</v>
       </c>
@@ -6082,7 +7018,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
         <v>677</v>
       </c>
@@ -6090,7 +7026,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
         <v>679</v>
       </c>
@@ -6098,7 +7034,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
         <v>681</v>
       </c>
@@ -6106,7 +7042,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
         <v>683</v>
       </c>
@@ -6114,7 +7050,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
         <v>685</v>
       </c>
@@ -6122,7 +7058,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
         <v>687</v>
       </c>
@@ -6130,7 +7066,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
         <v>689</v>
       </c>
@@ -6138,7 +7074,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
         <v>691</v>
       </c>
@@ -6146,7 +7082,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
         <v>693</v>
       </c>
@@ -6154,7 +7090,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
         <v>695</v>
       </c>
@@ -6162,7 +7098,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
         <v>697</v>
       </c>
@@ -6170,7 +7106,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
         <v>699</v>
       </c>
@@ -6178,7 +7114,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
         <v>701</v>
       </c>
@@ -6186,7 +7122,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
         <v>703</v>
       </c>
@@ -6194,7 +7130,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
         <v>705</v>
       </c>
@@ -6202,7 +7138,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
         <v>707</v>
       </c>
@@ -6210,7 +7146,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
         <v>709</v>
       </c>
@@ -6218,7 +7154,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
         <v>711</v>
       </c>
@@ -6226,7 +7162,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
         <v>713</v>
       </c>
@@ -6234,7 +7170,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
         <v>715</v>
       </c>
@@ -6242,7 +7178,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
         <v>716</v>
       </c>
@@ -6250,7 +7186,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
         <v>718</v>
       </c>
@@ -6258,7 +7194,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
         <v>720</v>
       </c>
@@ -6266,7 +7202,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
         <v>722</v>
       </c>
@@ -6274,7 +7210,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
         <v>724</v>
       </c>
@@ -6282,7 +7218,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
         <v>726</v>
       </c>
@@ -6290,7 +7226,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
         <v>728</v>
       </c>
@@ -6298,7 +7234,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
         <v>730</v>
       </c>
@@ -6306,7 +7242,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
         <v>732</v>
       </c>
@@ -6314,7 +7250,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
         <v>734</v>
       </c>
@@ -6322,7 +7258,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
         <v>736</v>
       </c>
@@ -6330,7 +7266,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
         <v>738</v>
       </c>
@@ -6338,7 +7274,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
         <v>740</v>
       </c>
@@ -6346,7 +7282,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
         <v>742</v>
       </c>
@@ -6354,7 +7290,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
         <v>744</v>
       </c>
@@ -6362,7 +7298,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
         <v>746</v>
       </c>
@@ -6370,7 +7306,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
         <v>748</v>
       </c>
@@ -6378,7 +7314,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
         <v>750</v>
       </c>
@@ -6386,7 +7322,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
         <v>752</v>
       </c>
@@ -6394,7 +7330,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
         <v>754</v>
       </c>
@@ -6402,7 +7338,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
         <v>756</v>
       </c>
@@ -6410,7 +7346,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
         <v>758</v>
       </c>
@@ -6418,7 +7354,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
         <v>760</v>
       </c>
@@ -6426,7 +7362,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
         <v>762</v>
       </c>
@@ -6434,7 +7370,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
         <v>764</v>
       </c>
@@ -6442,7 +7378,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
         <v>766</v>
       </c>
@@ -6450,7 +7386,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
         <v>768</v>
       </c>
@@ -6458,7 +7394,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
         <v>770</v>
       </c>
@@ -6466,7 +7402,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
         <v>772</v>
       </c>
@@ -6474,7 +7410,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
         <v>774</v>
       </c>
@@ -6482,7 +7418,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
         <v>776</v>
       </c>
@@ -6490,7 +7426,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
         <v>778</v>
       </c>
@@ -6498,7 +7434,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
         <v>780</v>
       </c>
@@ -6506,7 +7442,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
         <v>782</v>
       </c>
@@ -6514,7 +7450,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
         <v>784</v>
       </c>
@@ -6522,7 +7458,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
         <v>786</v>
       </c>
@@ -6530,7 +7466,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
         <v>788</v>
       </c>
@@ -6538,7 +7474,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
         <v>790</v>
       </c>
@@ -6546,7 +7482,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
         <v>792</v>
       </c>
@@ -6554,7 +7490,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
         <v>794</v>
       </c>
@@ -6562,7 +7498,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
         <v>796</v>
       </c>
@@ -6570,7 +7506,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
         <v>798</v>
       </c>
@@ -6578,7 +7514,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
         <v>800</v>
       </c>
@@ -6586,7 +7522,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
         <v>802</v>
       </c>
@@ -6594,7 +7530,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
         <v>804</v>
       </c>
@@ -6602,7 +7538,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
         <v>806</v>
       </c>
@@ -6610,7 +7546,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
         <v>808</v>
       </c>
@@ -6618,7 +7554,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
         <v>809</v>
       </c>
@@ -6626,7 +7562,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
         <v>811</v>
       </c>
@@ -6634,7 +7570,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
         <v>813</v>
       </c>
@@ -6642,7 +7578,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2">
       <c r="A415" s="1" t="s">
         <v>815</v>
       </c>
@@ -6650,7 +7586,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
         <v>817</v>
       </c>
@@ -6658,7 +7594,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
         <v>819</v>
       </c>
@@ -6666,7 +7602,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
         <v>821</v>
       </c>
@@ -6674,7 +7610,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
         <v>823</v>
       </c>
@@ -6682,7 +7618,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
         <v>825</v>
       </c>
@@ -6690,7 +7626,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
         <v>826</v>
       </c>
@@ -6698,7 +7634,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
         <v>828</v>
       </c>
@@ -6706,7 +7642,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
         <v>830</v>
       </c>
@@ -6714,7 +7650,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
         <v>832</v>
       </c>
@@ -6722,7 +7658,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
         <v>834</v>
       </c>
@@ -6730,7 +7666,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
         <v>836</v>
       </c>
@@ -6738,7 +7674,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
         <v>838</v>
       </c>
@@ -6746,7 +7682,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
         <v>840</v>
       </c>
@@ -6754,7 +7690,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
         <v>842</v>
       </c>
@@ -6762,7 +7698,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:2">
       <c r="A430" s="1" t="s">
         <v>844</v>
       </c>
@@ -6770,7 +7706,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:2">
       <c r="A431" s="1" t="s">
         <v>846</v>
       </c>
@@ -6778,7 +7714,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:2">
       <c r="A432" s="1" t="s">
         <v>848</v>
       </c>
@@ -6786,7 +7722,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:2">
       <c r="A433" s="1" t="s">
         <v>850</v>
       </c>
@@ -6794,7 +7730,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2">
       <c r="A434" s="1" t="s">
         <v>852</v>
       </c>
@@ -6802,7 +7738,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2">
       <c r="A435" s="1" t="s">
         <v>854</v>
       </c>
@@ -6810,7 +7746,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2">
       <c r="A436" s="1" t="s">
         <v>856</v>
       </c>
@@ -6818,7 +7754,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2">
       <c r="A437" s="1" t="s">
         <v>858</v>
       </c>
@@ -6826,7 +7762,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2">
       <c r="A438" s="1" t="s">
         <v>860</v>
       </c>
@@ -6834,7 +7770,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2">
       <c r="A439" s="1" t="s">
         <v>862</v>
       </c>
@@ -6842,7 +7778,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
         <v>864</v>
       </c>
@@ -6850,7 +7786,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2">
       <c r="A441" s="1" t="s">
         <v>866</v>
       </c>
@@ -6858,7 +7794,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
         <v>868</v>
       </c>
@@ -6866,7 +7802,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2">
       <c r="A443" s="1" t="s">
         <v>870</v>
       </c>
@@ -6874,7 +7810,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2">
       <c r="A444" s="1" t="s">
         <v>872</v>
       </c>
@@ -6882,7 +7818,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2">
       <c r="A445" s="1" t="s">
         <v>874</v>
       </c>
@@ -6890,7 +7826,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2">
       <c r="A446" s="1" t="s">
         <v>875</v>
       </c>
@@ -6898,7 +7834,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2">
       <c r="A447" s="1" t="s">
         <v>877</v>
       </c>
@@ -6906,7 +7842,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2">
       <c r="A448" s="1" t="s">
         <v>879</v>
       </c>
@@ -6914,7 +7850,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
         <v>881</v>
       </c>
@@ -6922,7 +7858,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2">
       <c r="A450" s="1" t="s">
         <v>883</v>
       </c>
@@ -6930,7 +7866,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2">
       <c r="A451" s="1" t="s">
         <v>885</v>
       </c>
@@ -6938,7 +7874,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2">
       <c r="A452" s="1" t="s">
         <v>887</v>
       </c>
@@ -6946,7 +7882,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2">
       <c r="A453" s="1" t="s">
         <v>888</v>
       </c>
@@ -6954,7 +7890,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
         <v>890</v>
       </c>
@@ -6962,7 +7898,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
         <v>892</v>
       </c>
@@ -6970,7 +7906,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2">
       <c r="A456" s="1" t="s">
         <v>894</v>
       </c>
@@ -6978,7 +7914,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2">
       <c r="A457" s="1" t="s">
         <v>896</v>
       </c>
@@ -6986,7 +7922,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2">
       <c r="A458" s="1" t="s">
         <v>898</v>
       </c>
@@ -6994,7 +7930,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
         <v>900</v>
       </c>
@@ -7002,7 +7938,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
         <v>902</v>
       </c>
@@ -7010,7 +7946,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
         <v>904</v>
       </c>
@@ -7018,7 +7954,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2">
       <c r="A462" s="1" t="s">
         <v>906</v>
       </c>
@@ -7026,7 +7962,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2">
       <c r="A463" s="1" t="s">
         <v>908</v>
       </c>
@@ -7034,7 +7970,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2">
       <c r="A464" s="1" t="s">
         <v>910</v>
       </c>
@@ -7042,7 +7978,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2">
       <c r="A465" s="1" t="s">
         <v>912</v>
       </c>
@@ -7050,7 +7986,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2">
       <c r="A466" s="1" t="s">
         <v>914</v>
       </c>
@@ -7058,7 +7994,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2">
       <c r="A467" s="1" t="s">
         <v>916</v>
       </c>
@@ -7066,7 +8002,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2">
       <c r="A468" s="1" t="s">
         <v>918</v>
       </c>
@@ -7074,7 +8010,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2">
       <c r="A469" s="1" t="s">
         <v>920</v>
       </c>
@@ -7082,7 +8018,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2">
       <c r="A470" s="1" t="s">
         <v>922</v>
       </c>
@@ -7090,7 +8026,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2">
       <c r="A471" s="1" t="s">
         <v>924</v>
       </c>
@@ -7098,7 +8034,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2">
       <c r="A472" s="1" t="s">
         <v>926</v>
       </c>
@@ -7106,7 +8042,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2">
       <c r="A473" s="1" t="s">
         <v>928</v>
       </c>
@@ -7114,7 +8050,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2">
       <c r="A474" s="1" t="s">
         <v>930</v>
       </c>
@@ -7122,7 +8058,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2">
       <c r="A475" s="1" t="s">
         <v>932</v>
       </c>
@@ -7130,7 +8066,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2">
       <c r="A476" s="1" t="s">
         <v>934</v>
       </c>
@@ -7138,7 +8074,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2">
       <c r="A477" s="1" t="s">
         <v>936</v>
       </c>
@@ -7146,7 +8082,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2">
       <c r="A478" s="1" t="s">
         <v>938</v>
       </c>
@@ -7154,7 +8090,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:2">
       <c r="A479" s="1" t="s">
         <v>939</v>
       </c>
@@ -7162,7 +8098,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
         <v>940</v>
       </c>
@@ -7170,7 +8106,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:2">
       <c r="A481" s="1" t="s">
         <v>942</v>
       </c>
@@ -7178,7 +8114,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
         <v>944</v>
       </c>
@@ -7186,7 +8122,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
         <v>946</v>
       </c>
@@ -7194,7 +8130,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:2">
       <c r="A484" s="1" t="s">
         <v>948</v>
       </c>
@@ -7202,7 +8138,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
         <v>950</v>
       </c>
@@ -7210,7 +8146,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
         <v>952</v>
       </c>
@@ -7218,7 +8154,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:2">
       <c r="A487" s="1" t="s">
         <v>954</v>
       </c>
@@ -7226,7 +8162,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
         <v>955</v>
       </c>
@@ -7234,7 +8170,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
         <v>956</v>
       </c>
@@ -7242,7 +8178,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:2">
       <c r="A490" s="1" t="s">
         <v>958</v>
       </c>
@@ -7250,7 +8186,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
         <v>960</v>
       </c>
@@ -7258,7 +8194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:2">
       <c r="A492" s="1" t="s">
         <v>961</v>
       </c>
@@ -7266,7 +8202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:2">
       <c r="A493" s="1" t="s">
         <v>962</v>
       </c>
@@ -7274,7 +8210,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2">
       <c r="A494" s="1" t="s">
         <v>964</v>
       </c>
@@ -7282,7 +8218,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:2">
       <c r="A495" s="1" t="s">
         <v>966</v>
       </c>
@@ -7290,7 +8226,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:2">
       <c r="A496" s="1" t="s">
         <v>968</v>
       </c>
@@ -7298,7 +8234,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:2">
       <c r="A497" s="1" t="s">
         <v>970</v>
       </c>
@@ -7306,23 +8242,23 @@
         <v>971</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:2">
       <c r="A498" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
         <v>976</v>
       </c>
@@ -7330,7 +8266,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
         <v>978</v>
       </c>
@@ -7338,9 +8274,465 @@
         <v>979</v>
       </c>
     </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoModuleProject\hksplitmaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,9 +460,6 @@
   </si>
   <si>
     <t>Dung Defender Idol (Trinket)</t>
-  </si>
-  <si>
-    <t>粪虫防御者雕像（装饰品）</t>
   </si>
   <si>
     <t>Elder Hu</t>
@@ -3304,18 +3306,16 @@
   <si>
     <t>阿鲁巴一只</t>
   </si>
+  <si>
+    <t>粪虫防御者国王神像（装饰品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3331,345 +3331,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3677,251 +3353,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3936,61 +3370,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4248,25 +3638,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4282,7 +3672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4290,7 +3680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4298,7 +3688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4306,7 +3696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4314,7 +3704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4322,7 +3712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4330,7 +3720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -4338,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4346,7 +3736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4354,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4362,7 +3752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4370,7 +3760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -4378,7 +3768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -4386,7 +3776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -4394,7 +3784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4402,7 +3792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -4410,7 +3800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4418,7 +3808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4426,7 +3816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4434,7 +3824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4442,7 +3832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -4450,7 +3840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -4458,7 +3848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -4466,7 +3856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -4474,7 +3864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -4482,7 +3872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -4490,7 +3880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4498,7 +3888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -4506,7 +3896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -4514,7 +3904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -4522,7 +3912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -4530,7 +3920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4538,7 +3928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -4546,7 +3936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -4554,7 +3944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -4562,7 +3952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -4570,7 +3960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -4578,7 +3968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -4586,7 +3976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -4594,7 +3984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -4602,7 +3992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -4610,7 +4000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -4618,7 +4008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4626,7 +4016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4634,7 +4024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -4642,7 +4032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -4650,7 +4040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -4658,7 +4048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -4666,7 +4056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +4064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -4682,7 +4072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -4690,7 +4080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -4698,7 +4088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -4706,7 +4096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -4714,7 +4104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4722,7 +4112,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4730,7 +4120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4738,7 +4128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4746,7 +4136,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4754,7 +4144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4762,7 +4152,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -4770,7 +4160,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -4778,7 +4168,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -4786,7 +4176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4794,7 +4184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -4802,7 +4192,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -4810,7 +4200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -4818,7 +4208,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -4826,7 +4216,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -4834,7 +4224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4842,7 +4232,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4850,3889 +4240,3889 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B128" s="1" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="1" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="1" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B168" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B169" s="1" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B173" s="1" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B177" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B179" s="1" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="1" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="1" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="1" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="1" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="1" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="1" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="1" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B188" s="1" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B191" s="1" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B193" s="1" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B194" s="1" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B201" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B202" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A203" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B203" s="1" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A204" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B204" s="1" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B209" s="1" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B210" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B211" s="1" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B217" s="1" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="1" t="s">
+      <c r="B218" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A221" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B221" s="1" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B223" s="1" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A224" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B224" s="1" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B226" s="1" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A232" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A233" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A235" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B235" s="1" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B238" s="1" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A239" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B240" s="1" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B243" s="1" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B244" s="1" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B246" s="1" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A247" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B247" s="1" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B248" s="1" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B249" s="1" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B250" s="1" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B253" s="1" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B254" s="1" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B255" s="1" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B256" s="1" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B257" s="1" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B260" s="1" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B261" s="1" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B262" s="1" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B263" s="1" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B264" s="1" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B265" s="1" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B267" s="1" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B268" s="1" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B269" s="1" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A270" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B270" s="1" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A271" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B271" s="1" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B272" s="1" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
+      <c r="B273" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B274" s="1" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B277" s="1" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A278" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B279" s="1" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B280" s="1" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B281" s="1" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B282" s="1" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B283" s="1" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B284" s="1" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B285" s="1" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B286" s="1" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B287" s="1" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B288" s="1" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B290" s="1" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B292" s="1" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
+      <c r="B293" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B294" s="1" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B297" s="1" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B298" s="1" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B299" s="1" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B300" s="1" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B301" s="1" t="s">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B302" s="1" t="s">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B303" s="1" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B304" s="1" t="s">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1" t="s">
+      <c r="B306" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B307" s="1" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B308" s="1" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1" t="s">
+      <c r="B309" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B310" s="1" t="s">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B312" s="1" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B313" s="1" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B314" s="1" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B315" s="1" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B316" s="1" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A317" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B317" s="1" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A318" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B318" s="1" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A319" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B319" s="1" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B320" s="1" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B321" s="1" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B323" s="1" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A324" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B324" s="1" t="s">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A325" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B325" s="1" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A326" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B326" s="1" t="s">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A327" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B327" s="1" t="s">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A328" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B328" s="1" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A329" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1" t="s">
+      <c r="B329" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B329" s="1" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A330" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B330" s="1" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A331" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A332" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B332" s="1" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A333" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B335" s="1" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A337" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B337" s="1" t="s">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A339" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B341" s="1" t="s">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A342" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B342" s="1" t="s">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A343" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A344" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B344" s="1" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B345" s="1" t="s">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B346" s="1" t="s">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B347" s="1" t="s">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A348" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B348" s="1" t="s">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A349" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="B349" s="1" t="s">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A350" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B350" s="1" t="s">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A351" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B351" s="1" t="s">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B352" s="1" t="s">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A353" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B353" s="1" t="s">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B354" s="1" t="s">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A355" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B355" s="1" t="s">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B356" s="1" t="s">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A357" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B357" s="1" t="s">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B358" s="1" t="s">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A359" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B359" s="1" t="s">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B360" s="1" t="s">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B361" s="1" t="s">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B362" s="1" t="s">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A363" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="1" t="s">
+      <c r="B364" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A365" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B367" s="1" t="s">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A368" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A370" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B372" s="1" t="s">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A373" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A375" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B375" s="1" t="s">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B376" s="1" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B377" s="1" t="s">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B378" s="1" t="s">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A379" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B379" s="1" t="s">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A380" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B380" s="1" t="s">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A381" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A382" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B382" s="1" t="s">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A383" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A384" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A385" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="1" t="s">
+      <c r="B385" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B385" s="1" t="s">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A386" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B386" s="1" t="s">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A387" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A388" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B388" s="1" t="s">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B389" s="1" t="s">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A390" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="1" t="s">
+      <c r="B390" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B390" s="1" t="s">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A391" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B391" s="1" t="s">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A392" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="1" t="s">
+      <c r="B392" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B392" s="1" t="s">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A393" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B393" s="1" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A394" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B394" s="1" t="s">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A395" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B395" s="1" t="s">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B396" s="1" t="s">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A397" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B397" s="1" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A398" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="1" t="s">
+      <c r="B398" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B398" s="1" t="s">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A399" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B399" s="1" t="s">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A400" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B400" s="1" t="s">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A401" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B401" s="1" t="s">
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A402" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="1" t="s">
+      <c r="B402" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B402" s="1" t="s">
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A403" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="1" t="s">
+      <c r="B403" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B403" s="1" t="s">
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A404" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="1" t="s">
+      <c r="B404" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B404" s="1" t="s">
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A405" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="1" t="s">
+      <c r="B405" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B405" s="1" t="s">
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A406" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B406" s="1" t="s">
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A407" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B407" s="1" t="s">
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A408" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B408" s="1" t="s">
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A409" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B409" s="1" t="s">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B410" s="1" t="s">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="1" t="s">
+      <c r="B411" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B412" s="1" t="s">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A413" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B413" s="1" t="s">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A414" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B414" s="1" t="s">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A415" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="1" t="s">
+      <c r="B415" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B415" s="1" t="s">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A416" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B416" s="1" t="s">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A417" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" s="1" t="s">
+      <c r="B417" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B417" s="1" t="s">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A418" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B418" s="1" t="s">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A419" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" s="1" t="s">
+      <c r="B419" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B419" s="1" t="s">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A420" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" s="1" t="s">
+      <c r="B420" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A421" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" s="1" t="s">
+      <c r="B421" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B421" s="1" t="s">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A422" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="1" t="s">
+      <c r="B422" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B422" s="1" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A423" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B423" s="1" t="s">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A424" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B424" s="1" t="s">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A425" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B425" s="1" t="s">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A426" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B426" s="1" t="s">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A427" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="1" t="s">
+      <c r="B427" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B427" s="1" t="s">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A428" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B428" s="1" t="s">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A429" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" s="1" t="s">
+      <c r="B429" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B429" s="1" t="s">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A430" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" s="1" t="s">
+      <c r="B430" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B430" s="1" t="s">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A431" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B431" s="1" t="s">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A432" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B432" s="1" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A433" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B433" s="1" t="s">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A434" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B435" s="1" t="s">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A436" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B436" s="1" t="s">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A437" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B437" s="1" t="s">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A438" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B438" s="1" t="s">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A439" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B439" s="1" t="s">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A440" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A441" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A442" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A443" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A444" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A445" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A446" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="B446" s="1" t="s">
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A447" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A448" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B448" s="1" t="s">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A449" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B449" s="1" t="s">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A450" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="B450" s="1" t="s">
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A451" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B451" s="1" t="s">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A452" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A453" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B453" s="1" t="s">
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B454" s="1" t="s">
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A455" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B455" s="1" t="s">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A456" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B456" s="1" t="s">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A457" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B457" s="1" t="s">
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B458" s="1" t="s">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A459" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B459" s="1" t="s">
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A460" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B460" s="1" t="s">
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A461" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B461" s="1" t="s">
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A462" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B462" s="1" t="s">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="1" t="s">
+      <c r="B463" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B463" s="1" t="s">
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A464" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B464" s="1" t="s">
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A465" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" s="1" t="s">
+      <c r="B465" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B465" s="1" t="s">
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A466" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B466" s="1" t="s">
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="467" spans="1:2">
-      <c r="A467" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B467" s="1" t="s">
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B468" s="1" t="s">
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A469" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="469" spans="1:2">
-      <c r="A469" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B469" s="1" t="s">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="1" t="s">
+      <c r="B470" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B470" s="1" t="s">
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A471" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B471" s="1" t="s">
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A472" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="1" t="s">
+      <c r="B472" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B472" s="1" t="s">
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" s="1" t="s">
+      <c r="B473" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B473" s="1" t="s">
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="1" t="s">
+      <c r="B474" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B474" s="1" t="s">
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" s="1" t="s">
+      <c r="B475" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B475" s="1" t="s">
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B476" s="1" t="s">
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="A477" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B477" s="1" t="s">
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="1" t="s">
+      <c r="B478" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A479" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" s="1" t="s">
+      <c r="B479" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B480" s="1" t="s">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A481" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B481" s="1" t="s">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A482" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B482" s="1" t="s">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A483" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="1" t="s">
+      <c r="B483" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B483" s="1" t="s">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A484" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B484" s="1" t="s">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A485" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B485" s="1" t="s">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B486" s="1" t="s">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A487" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="1" t="s">
+      <c r="B487" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" s="1" t="s">
+      <c r="B488" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A489" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
-      <c r="A489" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B489" s="1" t="s">
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A490" s="1" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B490" s="1" t="s">
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A491" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" s="1" t="s">
+      <c r="B491" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A492" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B493" s="1" t="s">
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="494" spans="1:2">
-      <c r="A494" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B494" s="1" t="s">
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A495" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="495" spans="1:2">
-      <c r="A495" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B495" s="1" t="s">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A496" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="496" spans="1:2">
-      <c r="A496" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B496" s="1" t="s">
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" s="1" t="s">
+      <c r="B497" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B497" s="1" t="s">
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="498" spans="1:2">
-      <c r="A498" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B498" s="1" t="s">
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="499" spans="1:2">
-      <c r="A499" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B499" s="1" t="s">
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="500" spans="1:2">
-      <c r="A500" s="1" t="s">
+      <c r="B500" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B500" s="1" t="s">
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A501" s="2" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="501" spans="1:2">
-      <c r="A501" s="2" t="s">
+      <c r="B501" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="B501" s="2" t="s">
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A502" s="1" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="502" spans="1:2">
-      <c r="A502" s="1" t="s">
+      <c r="B502" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A503" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
-      <c r="A503" s="1" t="s">
+      <c r="B503" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A504" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" s="1" t="s">
+      <c r="B504" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A505" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
-      <c r="A505" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B505" s="1" t="s">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A506" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="506" spans="1:2">
-      <c r="A506" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B506" s="1" t="s">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A507" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B507" s="1" t="s">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A508" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="508" spans="1:2">
-      <c r="A508" s="1" t="s">
+      <c r="B508" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B508" s="1" t="s">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A509" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="509" spans="1:2">
-      <c r="A509" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B509" s="1" t="s">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A510" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="510" spans="1:2">
-      <c r="A510" s="1" t="s">
+      <c r="B510" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B510" s="1" t="s">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A511" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="511" spans="1:2">
-      <c r="A511" s="1" t="s">
+      <c r="B511" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B511" s="1" t="s">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A512" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="512" spans="1:2">
-      <c r="A512" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B512" s="1" t="s">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A513" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B513" s="1" t="s">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A514" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B514" s="1" t="s">
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A515" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B515" s="1" t="s">
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A516" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B516" s="1" t="s">
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A517" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B517" s="1" t="s">
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A518" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B518" s="1" t="s">
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A519" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B519" s="1" t="s">
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A520" s="1" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B520" s="1" t="s">
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A521" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B521" s="1" t="s">
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A522" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B522" s="1" t="s">
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A523" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B523" s="1" t="s">
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A524" s="1" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B524" s="1" t="s">
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A525" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B525" s="1" t="s">
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A526" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B526" s="1" t="s">
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A527" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B527" s="1" t="s">
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A528" s="1" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" s="1" t="s">
+      <c r="B528" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B528" s="1" t="s">
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A529" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B529" s="1" t="s">
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A530" s="1" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B530" s="1" t="s">
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A531" s="1" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B531" s="1" t="s">
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A532" s="1" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B532" s="1" t="s">
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A533" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="533" spans="1:2">
-      <c r="A533" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B533" s="1" t="s">
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A534" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="534" spans="1:2">
-      <c r="A534" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B534" s="1" t="s">
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A535" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B535" s="1" t="s">
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A536" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" s="1" t="s">
+      <c r="B536" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B536" s="1" t="s">
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A537" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B537" s="1" t="s">
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A538" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="538" spans="1:2">
-      <c r="A538" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B538" s="1" t="s">
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A539" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B539" s="1" t="s">
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A540" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="540" spans="1:2">
-      <c r="A540" s="1" t="s">
+      <c r="B540" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B540" s="1" t="s">
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A541" s="1" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="541" spans="1:2">
-      <c r="A541" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B541" s="1" t="s">
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A542" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="542" spans="1:2">
-      <c r="A542" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B542" s="1" t="s">
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A543" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="543" spans="1:2">
-      <c r="A543" s="1" t="s">
+      <c r="B543" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B543" s="1" t="s">
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A544" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="544" spans="1:2">
-      <c r="A544" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B544" s="1" t="s">
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A545" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" s="1" t="s">
+      <c r="B545" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B545" s="1" t="s">
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A546" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="546" spans="1:2">
-      <c r="A546" s="1" t="s">
+      <c r="B546" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B546" s="1" t="s">
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A547" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="A547" s="1" t="s">
+      <c r="B547" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B547" s="1" t="s">
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A548" s="1" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="548" spans="1:2">
-      <c r="A548" s="1" t="s">
+      <c r="B548" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A549" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="A549" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B549" s="1" t="s">
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A550" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="550" spans="1:2">
-      <c r="A550" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B550" s="1" t="s">
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A551" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B551" s="1" t="s">
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A552" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B552" s="1" t="s">
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A553" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" s="1" t="s">
+      <c r="B553" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B553" s="1" t="s">
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A554" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" s="1" t="s">
+      <c r="B554" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B554" s="1" t="s">
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A555" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B555" s="1" t="s">
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A556" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="1" t="s">
+      <c r="B556" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B556" s="1" t="s">
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A557" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" s="1" t="s">
+      <c r="B557" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B557" s="1" t="s">
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A558" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="558" spans="1:2">
-      <c r="A558" s="1" t="s">
+      <c r="B558" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>1089</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/translate.xlsx
+++ b/translate.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoModuleProject\hksplitmaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1100">
   <si>
     <t>Greenpath</t>
   </si>
@@ -462,6 +457,9 @@
     <t>Dung Defender Idol (Trinket)</t>
   </si>
   <si>
+    <t>粪虫防御者国王神像（装饰品）</t>
+  </si>
+  <si>
     <t>Elder Hu</t>
   </si>
   <si>
@@ -1762,6 +1760,12 @@
   </si>
   <si>
     <t>City Collector</t>
+  </si>
+  <si>
+    <t>City Collector All</t>
+  </si>
+  <si>
+    <t>收藏家全部</t>
   </si>
   <si>
     <t>Cliffs Baldur Shell</t>
@@ -3307,15 +3311,41 @@
     <t>阿鲁巴一只</t>
   </si>
   <si>
-    <t>粪虫防御者国王神像（装饰品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Riding Stag</t>
+  </si>
+  <si>
+    <t>乘坐鹿角虫</t>
+  </si>
+  <si>
+    <t>Saved Cloth</t>
+  </si>
+  <si>
+    <t>拯救阿布</t>
+  </si>
+  <si>
+    <t>Essence</t>
+  </si>
+  <si>
+    <t>精华</t>
+  </si>
+  <si>
+    <t>Crystal Mound Exit</t>
+  </si>
+  <si>
+    <t>结晶山丘离开</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3324,28 +3354,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3353,9 +3700,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3366,21 +3955,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3638,25 +4271,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B558"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="B566" sqref="B566"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3672,7 +4305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +4313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +4321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +4329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3704,7 +4337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +4345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3720,7 +4353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3728,7 +4361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3736,7 +4369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,7 +4377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3752,7 +4385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +4393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3768,7 +4401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -3776,7 +4409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3784,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +4425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3800,7 +4433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3808,7 +4441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3816,7 +4449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3824,7 +4457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3832,7 +4465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -3840,7 +4473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -3848,7 +4481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -3856,7 +4489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -3864,7 +4497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -3872,7 +4505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3880,7 +4513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3888,7 +4521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3896,7 +4529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3904,7 +4537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3912,7 +4545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3920,7 +4553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3928,7 +4561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -3936,7 +4569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3944,7 +4577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -3952,7 +4585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -3960,7 +4593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +4601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -3976,7 +4609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3984,7 +4617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -3992,7 +4625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -4000,7 +4633,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -4008,7 +4641,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4016,7 +4649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4024,7 +4657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -4032,7 +4665,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -4040,7 +4673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -4048,7 +4681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -4056,7 +4689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -4064,7 +4697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -4072,7 +4705,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -4080,7 +4713,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -4088,7 +4721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -4096,7 +4729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -4104,7 +4737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4112,7 +4745,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -4120,7 +4753,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4128,7 +4761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4136,7 +4769,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4144,7 +4777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4152,7 +4785,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -4160,7 +4793,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -4168,7 +4801,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -4176,7 +4809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4184,7 +4817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -4192,7 +4825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -4200,7 +4833,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -4208,7 +4841,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -4216,7 +4849,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -4224,7 +4857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4865,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4240,3889 +4873,3929 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A210" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A211" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A212" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A213" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A214" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A215" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A216" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A217" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A218" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A375" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A376" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A378" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A380" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A381" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A382" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A383" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A384" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A385" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A386" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A387" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A388" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A389" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A390" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A391" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A392" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A393" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A394" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A395" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A396" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A397" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A398" s="1" t="s">
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A399" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A400" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A401" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A402" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A403" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A404" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A405" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A406" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A409" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A410" s="1" t="s">
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A411" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A412" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A413" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A414" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A415" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A416" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A417" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A418" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A419" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A420" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A421" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A422" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A423" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A424" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A425" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A426" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A427" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A428" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A429" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A430" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A431" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A432" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A433" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A434" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A435" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A436" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A437" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A438" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A439" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A440" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A441" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A442" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A443" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A444" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A445" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A446" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A447" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A448" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A449" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A450" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A451" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A452" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A453" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A454" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A455" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A456" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A457" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A458" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A459" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A460" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A461" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A462" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A463" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A464" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A465" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A466" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A467" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A468" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A469" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A470" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A471" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A472" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A473" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A474" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A475" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A476" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A477" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A478" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A479" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A480" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.15">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.15">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.15">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.15">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.15">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A493" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:2">
       <c r="A494" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A501" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B501" s="2" t="s">
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A502" s="1" t="s">
+      <c r="B501" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
       <c r="A503" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
       <c r="A504" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
       <c r="A505" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
       <c r="A506" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
       <c r="A507" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
       <c r="A508" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
       <c r="A509" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
       <c r="A512" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
       <c r="A515" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
       <c r="A516" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
       <c r="A517" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
       <c r="A518" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
       <c r="A519" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
       <c r="A520" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
       <c r="A521" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
       <c r="A522" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
       <c r="A523" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
       <c r="A524" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
       <c r="A527" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
       <c r="A528" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
       <c r="A529" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
       <c r="A530" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
       <c r="A531" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
       <c r="A532" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
       <c r="A533" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
       <c r="A534" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
       <c r="A535" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
       <c r="A536" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
       <c r="A537" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
       <c r="A538" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
       <c r="A539" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
       <c r="A540" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
       <c r="A541" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
       <c r="A542" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
       <c r="A543" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
       <c r="A544" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
       <c r="A545" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
       <c r="A546" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
       <c r="A547" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
       <c r="A548" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
       <c r="A549" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
       <c r="A550" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
       <c r="A551" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
       <c r="A552" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
       <c r="A553" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
       <c r="A554" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
       <c r="A555" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
       <c r="A556" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
       <c r="A557" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
       <c r="A558" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>